--- a/posts/in-transition/in-transition.xlsx
+++ b/posts/in-transition/in-transition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/in-transition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF5489F-3607-41FF-871B-EEA33604929A}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86678D5C-AE8B-4DEE-AE48-4F7D5F839771}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="markdown" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="197">
   <si>
     <t>CITATION METADATA</t>
   </si>
@@ -388,12 +388,6 @@
     <t>individuals</t>
   </si>
   <si>
-    <t>Susan Branje, Esther, Annabelle, Jingyun, Monika, Stefano, Lisanne</t>
-  </si>
-  <si>
-    <t>Susan Branje</t>
-  </si>
-  <si>
     <t>With the INTRANSITION project we want to find out which changes occur in the period that adolescents transition from one school or study programme to another. How do these changes affect the personal development of adolescents? To what extent do adolescents experience stress or tension during this transition? Is it easy for adolescents to connect with their new classmates? To what extent does this transition affect the atmosphere within the family? Do adolescents become more serious about school or are they more concerned with other things? By answering these questions, we can understand why some adolescents pass the school transition successfully and why others seem to struggle. This knowledge can be used by schools to better prepare their students for secondary and tertiary education. For parents, this study can give them insight on the needs of adolescents during this period. Findings from this project can also contribute to improving the counselling of students who experience a lot of stress during the primary and secondary school finals.</t>
   </si>
   <si>
@@ -409,12 +403,6 @@
     <t>school</t>
   </si>
   <si>
-    <t>https://www.uu.nl/en/research/intransition/publications</t>
-  </si>
-  <si>
-    <t>everyone's a researcher</t>
-  </si>
-  <si>
     <t>2019-2022</t>
   </si>
   <si>
@@ -448,15 +436,6 @@
     <t>Sending reminders to complete the questionnaires</t>
   </si>
   <si>
-    <t>Custom License; DAD: Data Agreement Form</t>
-  </si>
-  <si>
-    <t>One of the researchers might be a co-author, not always needed.</t>
-  </si>
-  <si>
-    <t>OSF page, link will be updated when avaiable</t>
-  </si>
-  <si>
     <t>Available upon request.</t>
   </si>
   <si>
@@ -466,14 +445,185 @@
     <t>The data collection is officially completed.</t>
   </si>
   <si>
-    <t>https://www.uu.nl/en/research/intransition</t>
+    <t>**Alternative URL**</t>
+  </si>
+  <si>
+    <t>[https://www.uu.nl/en/research/intransition](https://www.uu.nl/en/research/intransition )</t>
+  </si>
+  <si>
+    <t>[https://www.uu.nl/en/research/intransition/publications](https://www.uu.nl/en/research/intransition/publications)</t>
+  </si>
+  <si>
+    <t>[Susan Branje](s.branje@uu.nl) - Utrecht University</t>
+  </si>
+  <si>
+    <t>Susan Branje - [ORCID](https://orcid.org/0000-0002-9999-5313)</t>
+  </si>
+  <si>
+    <t>Esther Bernasco - [ORCID](https://orcid.org/0000-0003-4071-2371)</t>
+  </si>
+  <si>
+    <t>Annabelle Christiaens - [ORCID](https://orcid.org/0000-0002-6759-0346)</t>
+  </si>
+  <si>
+    <t>Jingyun Wang - [ORCID](https://orcid.org/0000-0002-3578-471X)</t>
+  </si>
+  <si>
+    <t>Monika Donker - [ORCID](https://orcid.org/0000-0001-9273-6127)</t>
+  </si>
+  <si>
+    <t>Stefano Mastrotheodoros - [ORCID](https://orcid.org/0000-0002-0936-6143)</t>
+  </si>
+  <si>
+    <t>Lisanne de Moor - [ORCID]()</t>
+  </si>
+  <si>
+    <t>_Researcher_: Susan Branje</t>
+  </si>
+  <si>
+    <t>_Researcher_: Esther Bernasco</t>
+  </si>
+  <si>
+    <t>_Researcher_: Annabelle Christiaens</t>
+  </si>
+  <si>
+    <t>_Researcher_: Jingyun Wang</t>
+  </si>
+  <si>
+    <t>_Researcher_: Monika Donker</t>
+  </si>
+  <si>
+    <t>_Researcher_: Stefano Mastrotheodoros</t>
+  </si>
+  <si>
+    <t>_Researcher_: Lisanne de Moor</t>
+  </si>
+  <si>
+    <t>OSF page, link will be updated when avaiable.</t>
+  </si>
+  <si>
+    <t>One of the original researchers may need to be listed as co-author, this would be discussed.</t>
+  </si>
+  <si>
+    <t>Depending on who the recipient is and where they are located, a Data Use Agreement or Data Transfer Agreement in line with GDPR regulations will have to be signed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Title** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Author**    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Point of Contact** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Description** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Subject** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Keyword**    </t>
+  </si>
+  <si>
+    <t>**Related Publication**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Language** </t>
+  </si>
+  <si>
+    <t>**Production Location**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Contributor** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Date of Collection** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Data Type** </t>
+  </si>
+  <si>
+    <t>**Software**</t>
+  </si>
+  <si>
+    <t>**Related Dataset**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Unit of Analysis** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Time Method** </t>
+  </si>
+  <si>
+    <t>**Frequency**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Sampling Procedure** </t>
+  </si>
+  <si>
+    <t>**Collection Mode**</t>
+  </si>
+  <si>
+    <t>**Type of Research Instrument**</t>
+  </si>
+  <si>
+    <t>**Universe**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Characteristics of Data Collection Situation** </t>
+  </si>
+  <si>
+    <t>**Actions to Minimize Losses**</t>
+  </si>
+  <si>
+    <t>**Response Rate**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Design Type** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Factor Type** </t>
+  </si>
+  <si>
+    <t>**Organism**</t>
+  </si>
+  <si>
+    <t>**License/Data Use Agreement**</t>
+  </si>
+  <si>
+    <t>**Terms of Use**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Confidentiality Declaration** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Special Permissions** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Restrictions** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Citation Requirements** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Conditions** </t>
+  </si>
+  <si>
+    <t>**Data Access Place**</t>
+  </si>
+  <si>
+    <t>**Availability Status**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Study Completion** </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +643,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -528,12 +684,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -551,6 +701,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -843,433 +1005,433 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="B20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -1277,7 +1439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -1285,7 +1447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -1293,7 +1455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -1301,7 +1463,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>77</v>
       </c>
@@ -1309,7 +1471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -1317,7 +1479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
@@ -1325,30 +1487,30 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -1369,447 +1531,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="A58" sqref="A58:A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>6</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="7" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="7" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="7" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="7" t="s">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="7" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
+  <mergeCells count="3">
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/posts/in-transition/in-transition.xlsx
+++ b/posts/in-transition/in-transition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/in-transition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86678D5C-AE8B-4DEE-AE48-4F7D5F839771}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E46C90-134F-47C7-AB17-EC4A3D7F0A4D}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="markdown" sheetId="2" r:id="rId1"/>
@@ -415,12 +415,6 @@
     <t>RADAR; similar data collection</t>
   </si>
   <si>
-    <t>adolescents transitioning from primary to secondary education (11-13) + secondary to tertiary education (16-20); parents</t>
-  </si>
-  <si>
-    <t>bi-annual (2x a year, 6 months in between); 4x waves + ESM was 2x weeks per way, 4x times a day</t>
-  </si>
-  <si>
     <t>via schools and social media, convenience sample; ~400 in first group / ~200 in second group</t>
   </si>
   <si>
@@ -430,9 +424,6 @@
     <t>structured; with some open-ended questions</t>
   </si>
   <si>
-    <t>Part of the data collection was during the COVID period.</t>
-  </si>
-  <si>
     <t>Sending reminders to complete the questionnaires</t>
   </si>
   <si>
@@ -499,9 +490,6 @@
     <t>_Researcher_: Lisanne de Moor</t>
   </si>
   <si>
-    <t>OSF page, link will be updated when avaiable.</t>
-  </si>
-  <si>
     <t>One of the original researchers may need to be listed as co-author, this would be discussed.</t>
   </si>
   <si>
@@ -617,6 +605,18 @@
   </si>
   <si>
     <t xml:space="preserve">**Study Completion** </t>
+  </si>
+  <si>
+    <t>adolescents transitioning from primary to secondary education (11-13 years) + secondary to tertiary education (16-20 years); as well as their parents + a friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4x waves; bi-annual (2x a year, 6 months in between) + ESM was 2x weeks per wave, 4x times a day</t>
+  </si>
+  <si>
+    <t>Part of the data collection was during the COVID period. The observations, interviews, and saliva sampling only took place in Wave 1 &amp; Wave 4.</t>
+  </si>
+  <si>
+    <t>OSF page, link will be updated when available.</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3DBDAA-11CF-43DF-9889-762BA2530C67}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -1533,9 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A58" sqref="A58:A60"/>
+      <selection pane="topRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>115</v>
@@ -1566,67 +1566,67 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>120</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>117</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>121</v>
@@ -1674,15 +1674,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>116</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -1698,51 +1698,51 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>125</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>126</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>127</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>128</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>119</v>
@@ -1788,15 +1788,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>118</v>
@@ -1804,55 +1804,55 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B44" s="5"/>
     </row>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>118</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B48" s="5"/>
     </row>
@@ -1890,50 +1890,50 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1944,26 +1944,26 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/posts/in-transition/in-transition.xlsx
+++ b/posts/in-transition/in-transition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/in-transition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E46C90-134F-47C7-AB17-EC4A3D7F0A4D}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19C366CF-B110-4A50-BED0-7DE59FD1147F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,9 +415,6 @@
     <t>RADAR; similar data collection</t>
   </si>
   <si>
-    <t>via schools and social media, convenience sample; ~400 in first group / ~200 in second group</t>
-  </si>
-  <si>
     <t>online questionnaires, mobile questionnaires, home visits (interviews and observation)</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>OSF page, link will be updated when available.</t>
+  </si>
+  <si>
+    <t>via schools and social media, convenience sample; ~400 in first group (11-13 years) / ~200 in second group (16-20 years)</t>
   </si>
 </sst>
 </file>
@@ -1533,9 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B60" sqref="B60"/>
+      <selection pane="topRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>115</v>
@@ -1566,67 +1566,67 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>120</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>117</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>121</v>
@@ -1674,15 +1674,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>116</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -1698,51 +1698,51 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>125</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>126</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>127</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>128</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>119</v>
@@ -1788,15 +1788,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>118</v>
@@ -1804,55 +1804,55 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" s="5"/>
     </row>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>118</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" s="5"/>
     </row>
@@ -1890,50 +1890,50 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1944,26 +1944,26 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
